--- a/data/trans_dic/P14B35-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P14B35-Habitat-trans_dic.xlsx
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.007301870308801865</v>
+        <v>0.007232496463499564</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01743664534712258</v>
+        <v>0.01697055715179656</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02548777714894989</v>
+        <v>0.02653137539228449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.007257087871128585</v>
+        <v>0.006769360124200693</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04541525856427255</v>
+        <v>0.04487783102285322</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.005815168212108532</v>
+        <v>0.004931086198940685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0009015309864813496</v>
+        <v>0.0009010261082596018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01496012323740682</v>
+        <v>0.01498506160135956</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.0179869663880972</v>
+        <v>0.01871977723286276</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.008316925681266527</v>
+        <v>0.007431222408784171</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03346485589824665</v>
+        <v>0.03399398037312384</v>
       </c>
     </row>
     <row r="10">
@@ -721,7 +721,7 @@
         <v>0.004901159761143858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04414349643545405</v>
+        <v>0.04414349643545404</v>
       </c>
     </row>
     <row r="11">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.01049517363865971</v>
+        <v>0.01057559214133517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001255217616596014</v>
+        <v>0.001248959776569302</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02992108141866649</v>
+        <v>0.03061332182579189</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.03113919682190084</v>
+        <v>0.03140382338346967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01113783448227131</v>
+        <v>0.01100106818635526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06334392798798508</v>
+        <v>0.06511216776281176</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.009414632197860323</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03562146649674598</v>
+        <v>0.03562146649674599</v>
       </c>
     </row>
     <row r="14">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.002706057764484665</v>
+        <v>0.003445142167599544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004465872875464914</v>
+        <v>0.004803607354708422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02492427609034177</v>
+        <v>0.02577941318332897</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.01416356169643522</v>
+        <v>0.01518923405168168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01593443481815423</v>
+        <v>0.01729563840835869</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04856164956426928</v>
+        <v>0.04958029490160108</v>
       </c>
     </row>
     <row r="16">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.009240369375185556</v>
+        <v>0.009214256397767618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002976919334980936</v>
+        <v>0.003163506210374268</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02625662940003529</v>
+        <v>0.0265779752464241</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.01628327980634115</v>
+        <v>0.01667096135905205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.007349480247965187</v>
+        <v>0.007730235636675035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03940580678621171</v>
+        <v>0.03941339884312332</v>
       </c>
     </row>
     <row r="19">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>5090</v>
+        <v>5041</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12776</v>
+        <v>12435</v>
       </c>
     </row>
     <row r="7">
@@ -1045,13 +1045,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>17766</v>
+        <v>18494</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4883</v>
+        <v>4555</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33277</v>
+        <v>32883</v>
       </c>
     </row>
     <row r="8">
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>5984</v>
+        <v>5074</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>940</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15970</v>
+        <v>15997</v>
       </c>
     </row>
     <row r="11">
@@ -1125,13 +1125,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>18508</v>
+        <v>19262</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8674</v>
+        <v>7750</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35724</v>
+        <v>36289</v>
       </c>
     </row>
     <row r="12">
@@ -1187,13 +1187,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>8146</v>
+        <v>8209</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24147</v>
+        <v>24706</v>
       </c>
     </row>
     <row r="15">
@@ -1205,13 +1205,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>24169</v>
+        <v>24375</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8743</v>
+        <v>8636</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51120</v>
+        <v>52547</v>
       </c>
     </row>
     <row r="16">
@@ -1267,13 +1267,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>2847</v>
+        <v>3624</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4661</v>
+        <v>5014</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27803</v>
+        <v>28757</v>
       </c>
     </row>
     <row r="19">
@@ -1285,13 +1285,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>14899</v>
+        <v>15978</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16632</v>
+        <v>18053</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54170</v>
+        <v>55306</v>
       </c>
     </row>
     <row r="20">
@@ -1347,13 +1347,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>32841</v>
+        <v>32748</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10552</v>
+        <v>11213</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>97746</v>
+        <v>98943</v>
       </c>
     </row>
     <row r="23">
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>57872</v>
+        <v>59250</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26051</v>
+        <v>27400</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>146697</v>
+        <v>146726</v>
       </c>
     </row>
     <row r="24">
